--- a/Task_0/Пример Х-Матрицы ООП.xlsx
+++ b/Task_0/Пример Х-Матрицы ООП.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyCharmProjects\MM&amp;DSS\Task_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886BC6BC-B18E-4632-B809-83B292E55AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E2EA26-A8BB-4C89-B7C9-E44F3862E9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="X-Matrix Пример" sheetId="2" r:id="rId1"/>
+    <sheet name="X-Matrix начало" sheetId="5" r:id="rId1"/>
+    <sheet name="X-Matrix Конец" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="42">
   <si>
     <t>X</t>
   </si>
@@ -122,6 +123,30 @@
   </si>
   <si>
     <t>НТС - научно-технологические средства</t>
+  </si>
+  <si>
+    <t>Оптимизация инвестиционных стратегий</t>
+  </si>
+  <si>
+    <t>Моделирование экономических систем</t>
+  </si>
+  <si>
+    <t>Методы оптимизации</t>
+  </si>
+  <si>
+    <t>Технологии моделирования в финансовой сфере</t>
+  </si>
+  <si>
+    <t>Системно-динамическое программирование</t>
+  </si>
+  <si>
+    <t>Модель Хольта-Уинтерса</t>
+  </si>
+  <si>
+    <t>ХXX</t>
+  </si>
+  <si>
+    <t>ХX</t>
   </si>
 </sst>
 </file>
@@ -680,78 +705,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -763,27 +809,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -803,6 +828,257 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>908797</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>20170</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3134285" cy="749821"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2F517A4-F116-45ED-A98A-E77F89062905}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7623922" y="2601445"/>
+          <a:ext cx="3134285" cy="749821"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:srgbClr val="000000"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="000000"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="000000"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" b="1"/>
+            <a:t>Что будет уметь делать студент, какие у него будут компетенции после окончания курса</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1397373</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>172571</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2771775" cy="749821"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EAC1649-0DFF-43F9-9FD8-D7504050832F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5235948" y="1610846"/>
+          <a:ext cx="2771775" cy="749821"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:srgbClr val="000000"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="000000"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="000000"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" b="1"/>
+            <a:t>Нужды студента - зачем ему нужны прокачиваемые компетенции</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3457575" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4082CC46-6805-4EB0-AC07-039DF4399B76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4762500" y="3810000"/>
+          <a:ext cx="3457575" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:srgbClr val="000000"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="000000"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="000000"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" b="1"/>
+            <a:t>Мероприятия курса, темы</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3095625" cy="530658"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDA1B56E-6DDD-4233-B6BC-81BB3CCCFAE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2686049" y="2752725"/>
+          <a:ext cx="3095625" cy="530658"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:srgbClr val="000000"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="000000"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="000000"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" b="1"/>
+            <a:t>Научно-технологические средства - НТС (что преподается в курсе)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1262,11 +1538,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4881B822-8A15-4D01-B2AE-06FCC13BB521}">
   <dimension ref="C1:AD41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1287,7 +1563,7 @@
       </c>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F2" t="s">
         <v>5</v>
       </c>
@@ -1302,14 +1578,14 @@
       <c r="E3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="32"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="43"/>
       <c r="L3" s="9" t="s">
         <v>8</v>
       </c>
@@ -1336,14 +1612,14 @@
       <c r="E4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="35"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="29"/>
       <c r="L4" s="14" t="s">
         <v>0</v>
       </c>
@@ -1354,7 +1630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="3:30" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:30" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="16" t="s">
         <v>2</v>
       </c>
@@ -1364,14 +1640,14 @@
       <c r="E5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="38"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="46"/>
       <c r="L5" s="19" t="s">
         <v>0</v>
       </c>
@@ -1389,303 +1665,303 @@
       </c>
     </row>
     <row r="6" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="55" t="s">
+      <c r="F6" s="53"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="58" t="s">
+      <c r="M6" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="45" t="s">
+      <c r="N6" s="37" t="s">
         <v>20</v>
       </c>
       <c r="Q6" t="s">
         <v>2</v>
       </c>
-      <c r="R6" s="61" t="s">
+      <c r="R6" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="61"/>
-      <c r="Z6" s="61"/>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="61"/>
-      <c r="AC6" s="61"/>
-      <c r="AD6" s="61"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="40"/>
     </row>
     <row r="7" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C7" s="40"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="46"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="61"/>
-      <c r="U7" s="61"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="61"/>
-      <c r="X7" s="61"/>
-      <c r="Y7" s="61"/>
-      <c r="Z7" s="61"/>
-      <c r="AA7" s="61"/>
-      <c r="AB7" s="61"/>
-      <c r="AC7" s="61"/>
-      <c r="AD7" s="61"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="38"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="40"/>
     </row>
     <row r="8" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C8" s="40"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="46"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="38"/>
     </row>
     <row r="9" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C9" s="40"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="46"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="38"/>
     </row>
     <row r="10" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C10" s="40"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="46"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="38"/>
     </row>
     <row r="11" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C11" s="40"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="46"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="38"/>
     </row>
     <row r="12" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C12" s="40"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="46"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="38"/>
     </row>
     <row r="13" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C13" s="40"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="46"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="38"/>
     </row>
     <row r="14" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C14" s="40"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="46"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="38"/>
     </row>
     <row r="15" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C15" s="40"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="46"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="38"/>
     </row>
     <row r="16" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C16" s="40"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="46"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="38"/>
     </row>
     <row r="17" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C17" s="40"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="46"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="38"/>
     </row>
     <row r="18" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C18" s="40"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="46"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="38"/>
     </row>
     <row r="19" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C19" s="40"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="46"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="38"/>
     </row>
     <row r="20" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C20" s="40"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="46"/>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C21" s="41"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="38"/>
+    </row>
+    <row r="21" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="49"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="39"/>
     </row>
     <row r="22" spans="3:28" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="6"/>
       <c r="D22" s="7"/>
       <c r="E22" s="10"/>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="32"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="43"/>
       <c r="L22" s="6"/>
       <c r="M22" s="7"/>
       <c r="N22" s="10"/>
       <c r="Q22" t="s">
         <v>0</v>
       </c>
-      <c r="R22" s="29" t="s">
+      <c r="R22" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="29"/>
-      <c r="AB22" s="29"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="30"/>
     </row>
     <row r="23" spans="3:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="21" t="s">
@@ -1697,14 +1973,14 @@
       <c r="E23" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="35"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="29"/>
       <c r="L23" s="21" t="s">
         <v>1</v>
       </c>
@@ -1717,19 +1993,19 @@
       <c r="Q23" t="s">
         <v>1</v>
       </c>
-      <c r="R23" s="29" t="s">
+      <c r="R23" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="29"/>
-      <c r="Z23" s="29"/>
-      <c r="AA23" s="29"/>
-      <c r="AB23" s="29"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
     </row>
     <row r="24" spans="3:28" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="24" t="s">
@@ -1741,14 +2017,14 @@
       <c r="E24" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="35"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="29"/>
       <c r="L24" s="24" t="s">
         <v>0</v>
       </c>
@@ -1761,19 +2037,19 @@
       <c r="Q24" t="s">
         <v>2</v>
       </c>
-      <c r="R24" s="29" t="s">
+      <c r="R24" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="29"/>
-      <c r="AA24" s="29"/>
-      <c r="AB24" s="29"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="30"/>
     </row>
     <row r="25" spans="3:28" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="24" t="s">
@@ -1785,14 +2061,14 @@
       <c r="E25" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="F25" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="35"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="29"/>
       <c r="L25" s="24" t="s">
         <v>1</v>
       </c>
@@ -1914,4 +2190,671 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="C1:AD41"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="14" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:30" ht="21" x14ac:dyDescent="0.35">
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="3:30" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="3:30" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="3:30" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="53"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R6" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="40"/>
+    </row>
+    <row r="7" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C7" s="48"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="38"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="40"/>
+    </row>
+    <row r="8" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C8" s="48"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="38"/>
+    </row>
+    <row r="9" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C9" s="48"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="38"/>
+    </row>
+    <row r="10" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C10" s="48"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="38"/>
+    </row>
+    <row r="11" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C11" s="48"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="38"/>
+    </row>
+    <row r="12" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C12" s="48"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="38"/>
+    </row>
+    <row r="13" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C13" s="48"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="38"/>
+    </row>
+    <row r="14" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C14" s="48"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="38"/>
+    </row>
+    <row r="15" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C15" s="48"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="38"/>
+    </row>
+    <row r="16" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C16" s="48"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="38"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C17" s="48"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="38"/>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C18" s="48"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="38"/>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C19" s="48"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="38"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C20" s="48"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="38"/>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C21" s="49"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="39"/>
+    </row>
+    <row r="22" spans="3:28" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>0</v>
+      </c>
+      <c r="R22" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="30"/>
+    </row>
+    <row r="23" spans="3:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="M23" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="N23" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>1</v>
+      </c>
+      <c r="R23" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+    </row>
+    <row r="24" spans="3:28" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="M24" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="N24" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>2</v>
+      </c>
+      <c r="R24" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="30"/>
+    </row>
+    <row r="25" spans="3:28" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M25" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="N25" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="S27" s="2"/>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="F31" s="2"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="F38" s="5"/>
+    </row>
+    <row r="40" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="F41" s="5"/>
+      <c r="AB41" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="C6:C21"/>
+    <mergeCell ref="D6:D21"/>
+    <mergeCell ref="E6:E21"/>
+    <mergeCell ref="F6:K21"/>
+    <mergeCell ref="L6:L21"/>
+    <mergeCell ref="M6:M21"/>
+    <mergeCell ref="N6:N21"/>
+    <mergeCell ref="R6:AD7"/>
+    <mergeCell ref="F22:K22"/>
+    <mergeCell ref="R22:AB22"/>
+    <mergeCell ref="F23:K23"/>
+    <mergeCell ref="R23:AB23"/>
+    <mergeCell ref="F24:K24"/>
+    <mergeCell ref="R24:AB24"/>
+    <mergeCell ref="F25:K25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>